--- a/inventory/JP_stoch.xlsx
+++ b/inventory/JP_stoch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmshek\Documents\GithubExternal\stock\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6448F5-D3EB-414B-A6D2-FC33130CA6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B7FAFA-8DEF-4717-AE60-9A255713AC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="2520" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Ticker</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>9759.T</t>
+  </si>
+  <si>
+    <t>4911.T</t>
+  </si>
+  <si>
+    <t>4812.T</t>
   </si>
 </sst>
 </file>
@@ -83,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -134,10 +140,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,11 +424,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +437,7 @@
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="5"/>
+    <col min="9" max="9" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -525,6 +531,70 @@
         <v>42</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45239</v>
+      </c>
+      <c r="C4">
+        <v>4814</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>37.58</v>
+      </c>
+      <c r="F4">
+        <v>34.79</v>
+      </c>
+      <c r="G4">
+        <v>29.56</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45243</v>
+      </c>
+      <c r="J4">
+        <v>4817</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>-13.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45240</v>
+      </c>
+      <c r="C5">
+        <v>4560</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>15.89</v>
+      </c>
+      <c r="F5">
+        <v>14.09</v>
+      </c>
+      <c r="G5">
+        <v>2.15</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
